--- a/path.xlsx
+++ b/path.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansung\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80260A46-E60A-4EC0-BDE8-3E777E7A464E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF91E4-9DAB-4BB0-A96D-FDCC8DE5EAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9432" yWindow="12" windowWidth="13608" windowHeight="11388" xr2:uid="{14C9ADD8-67D2-4C59-A742-475E764C384F}"/>
+    <workbookView xWindow="2688" yWindow="1572" windowWidth="13608" windowHeight="11388" xr2:uid="{14C9ADD8-67D2-4C59-A742-475E764C384F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="151">
   <si>
     <t>언론사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,24 @@
   </si>
   <si>
     <t>#container &gt; div &gt; div &gt; div.view_head &gt; p</t>
+  </si>
+  <si>
+    <t>#articleTitle</t>
+  </si>
+  <si>
+    <t>#article</t>
+  </si>
+  <si>
+    <t>#contentArea &gt; div.caL2 &gt; div &gt; div.articleArea &gt; div:nth-child(1)</t>
+  </si>
+  <si>
+    <t>#contents &gt; p:nth-child(3)</t>
+  </si>
+  <si>
+    <t>#PushLinkId</t>
+  </si>
+  <si>
+    <t>#content_li &gt; p</t>
   </si>
 </sst>
 </file>
@@ -909,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D057575-A847-4D22-877C-744EB518CE97}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,6 +974,12 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1181,6 +1205,12 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -1241,6 +1271,12 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
@@ -1344,6 +1380,12 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
